--- a/target/classes/static/files/properties.xlsx
+++ b/target/classes/static/files/properties.xlsx
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
